--- a/databaseDesign/heroku_blog_datebase_v01.xlsx
+++ b/databaseDesign/heroku_blog_datebase_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="关系总图" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>登录时的用户名</t>
   </si>
   <si>
-    <t>passwrod</t>
-  </si>
-  <si>
     <t>varchar(40)</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>博客的功能菜单</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -502,10 +502,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -914,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -951,10 +951,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
@@ -1014,10 +1014,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1057,14 +1057,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1119,11 +1119,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1131,15 +1131,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -1147,15 +1147,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -1163,15 +1163,15 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -1179,39 +1179,39 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1242,14 +1242,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1265,7 +1265,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1298,15 +1298,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1314,15 +1314,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -1330,15 +1330,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -1346,12 +1346,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1362,15 +1362,15 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
@@ -1407,14 +1407,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1430,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1463,12 +1463,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1479,12 +1479,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -1495,12 +1495,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>28</v>
@@ -1511,12 +1511,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1527,12 +1527,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -1543,15 +1543,15 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
@@ -1559,12 +1559,12 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -1575,12 +1575,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1591,39 +1591,39 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1655,14 +1655,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1678,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -1711,18 +1711,18 @@
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1770,14 +1770,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1793,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1826,15 +1826,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1842,31 +1842,31 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -1874,34 +1874,34 @@
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1937,14 +1937,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1960,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1993,15 +1993,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -2009,15 +2009,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -2025,34 +2025,34 @@
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2087,14 +2087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2110,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>28</v>
@@ -2143,12 +2143,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>28</v>
@@ -2159,12 +2159,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>24</v>
@@ -2175,18 +2175,18 @@
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>

--- a/databaseDesign/heroku_blog_datebase_v01.xlsx
+++ b/databaseDesign/heroku_blog_datebase_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="关系总图" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="109">
   <si>
     <t>数据库关系图：</t>
   </si>
@@ -179,12 +179,6 @@
     <t>外健</t>
   </si>
   <si>
-    <t>owner_id</t>
-  </si>
-  <si>
-    <t>博主ID，关联users表中的id</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>评论者的昵称</t>
   </si>
   <si>
-    <t>websit</t>
-  </si>
-  <si>
     <t>评论者网站链接</t>
   </si>
   <si>
@@ -363,6 +354,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>关联Email</t>
+  </si>
+  <si>
+    <t>website</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,6 +503,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1014,10 +1012,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -1231,7 +1229,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1286,27 +1284,27 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
+      <c r="E4" s="17"/>
+      <c r="F4" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1314,15 +1312,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -1330,15 +1328,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -1346,12 +1344,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>58</v>
+      <c r="A8" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1362,7 +1360,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1408,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1452,7 +1450,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1463,12 +1461,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1479,12 +1477,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -1495,12 +1493,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>28</v>
@@ -1511,12 +1509,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1527,12 +1525,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -1543,15 +1541,15 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
@@ -1559,12 +1557,12 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -1575,12 +1573,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1591,7 +1589,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1607,7 +1605,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1623,7 +1621,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1654,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1700,10 +1698,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -1711,7 +1709,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
       <c r="F4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1758,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1771,7 +1769,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1815,7 +1813,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1826,15 +1824,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1842,15 +1840,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>88</v>
+      <c r="A6" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
@@ -1858,15 +1856,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -1874,12 +1872,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1890,7 +1888,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="13"/>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1925,7 +1923,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1938,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1982,7 +1980,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1993,15 +1991,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="12"/>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -2009,15 +2007,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>25</v>
@@ -2025,15 +2023,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -2041,7 +2039,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="13"/>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2074,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2088,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2132,7 +2130,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>28</v>
@@ -2143,12 +2141,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>28</v>
@@ -2159,12 +2157,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>24</v>
@@ -2175,7 +2173,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/databaseDesign/heroku_blog_datebase_v01.xlsx
+++ b/databaseDesign/heroku_blog_datebase_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="关系总图" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="111">
   <si>
     <t>数据库关系图：</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>website</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>类型是否可见</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,10 +955,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
@@ -1055,14 +1061,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1240,14 +1246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1294,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="10" t="s">
         <v>107</v>
       </c>
@@ -1394,7 +1400,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1405,14 +1411,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1449,7 +1455,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1465,7 +1471,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1481,7 +1487,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1497,7 +1503,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1513,7 +1519,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1529,7 +1535,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1545,7 +1551,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1561,7 +1567,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1577,7 +1583,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1593,7 +1599,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1638,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1653,14 +1659,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1714,21 +1720,23 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>39</v>
@@ -1739,6 +1747,20 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1756,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1768,14 +1790,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1812,7 +1834,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1828,7 +1850,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1876,7 +1898,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1892,7 +1914,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1920,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1935,14 +1957,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1979,24 +2001,24 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>82</v>
+      <c r="A4" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>91</v>
+      <c r="A5" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>49</v>
@@ -2007,54 +2029,38 @@
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
       <c r="F5" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>93</v>
+      <c r="A6" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2085,14 +2091,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">

--- a/databaseDesign/heroku_blog_datebase_v01.xlsx
+++ b/databaseDesign/heroku_blog_datebase_v01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="572" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="关系总图" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
   <si>
     <t>数据库关系图：</t>
   </si>
@@ -367,12 +367,60 @@
   <si>
     <t>类型是否可见</t>
   </si>
+  <si>
+    <t>root_id</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顶级父评论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，关联自身表的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
@@ -420,6 +468,18 @@
       <color theme="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -485,7 +545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,10 +570,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,14 +693,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -930,6 +991,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -1028,6 +1090,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" location="users!A1" display="users"/>
     <hyperlink ref="A4" location="blog_infos!A1" display="blog_infos"/>
@@ -1222,6 +1285,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
@@ -1387,6 +1451,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
@@ -1634,6 +1699,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
@@ -1646,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1766,6 +1832,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
@@ -1776,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1915,22 +1982,39 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2066,6 +2150,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
@@ -2214,6 +2299,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>